--- a/src/main/webapp/report/Export/TimeSheet/Template_timesheet_daily.xlsx
+++ b/src/main/webapp/report/Export/TimeSheet/Template_timesheet_daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\GMESApi\GMESApiCore\GMESApiCore\src\main\webapp\report\Export\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D6DF2D-2070-4A9B-B1D5-2243D8F75F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53BE181-87F9-4697-BF55-6C356B1B0CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF0FE9C5-408F-40F6-9E85-D6DDE582E117}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,9 +124,31 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -128,31 +158,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -164,7 +170,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -175,35 +183,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="double">
@@ -215,45 +195,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,253 +554,309 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" customWidth="1"/>
     <col min="4" max="34" width="5.88671875" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="2"/>
+    <col min="35" max="35" width="13.109375" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
     </row>
     <row r="2" spans="1:36" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
     </row>
     <row r="3" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="10" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="4" t="s">
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="5"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="3">
         <v>6</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="3">
         <v>7</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="3">
         <v>8</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="3">
         <v>9</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="3">
         <v>10</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="3">
         <v>11</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="3">
         <v>12</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="3">
         <v>13</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="3">
         <v>14</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="3">
         <v>15</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="3">
         <v>16</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="3">
         <v>17</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="3">
         <v>18</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="3">
         <v>19</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="3">
         <v>20</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="3">
         <v>21</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="3">
         <v>22</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="3">
         <v>23</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="3">
         <v>24</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="3">
         <v>25</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AC4" s="3">
         <v>26</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AD4" s="3">
         <v>27</v>
       </c>
-      <c r="AE4" s="12">
+      <c r="AE4" s="3">
         <v>28</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AF4" s="3">
         <v>29</v>
       </c>
-      <c r="AG4" s="12">
+      <c r="AG4" s="3">
         <v>30</v>
       </c>
-      <c r="AH4" s="14">
+      <c r="AH4" s="8">
         <v>31</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AI4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="6"/>
+      <c r="AJ4" s="4"/>
     </row>
     <row r="5" spans="1:36" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M14" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:AI1"/>
@@ -827,7 +864,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="AE3:AF3"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.5" right="0" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>